--- a/classes/test.xlsx
+++ b/classes/test.xlsx
@@ -1,67 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\React\classes\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ACE1B1D-2C55-45A9-96E5-89CD26ACB3AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>Наталия Смирнова</t>
-  </si>
-  <si>
-    <t>Иван Иванов</t>
-  </si>
-  <si>
-    <t>Петр Петров</t>
-  </si>
-  <si>
-    <t>Юлия Семенова</t>
-  </si>
-  <si>
-    <t>TylerD239@gmail.com</t>
-  </si>
-  <si>
-    <t>Kirillkirill239@gmail.com</t>
-  </si>
-  <si>
-    <t>Davydenco.evgenia@gmail.com</t>
-  </si>
-  <si>
-    <t>ivbel58@gmail.com</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <numFmts count="1">
+    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+  </numFmts>
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -84,28 +39,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -430,59 +374,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="33.625" customWidth="1"/>
-    <col min="2" max="2" width="36.75" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Иван Иванов</v>
+      </c>
+      <c r="B1" t="str">
+        <v>TylerD239@gmail.com</v>
+      </c>
+      <c r="C1" t="b">
+        <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="2">
+      <c r="A2" t="str">
+        <v>Петр Петров</v>
+      </c>
+      <c r="B2" t="str">
+        <v>Kirillkirill239@gmail.com</v>
+      </c>
+      <c r="C2" t="b">
         <v>0</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{754AE697-E010-4088-9C5D-09B606DB3C1A}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{D4DDDC74-F5B2-4ACF-8D9B-815B52B4DABE}"/>
-    <hyperlink ref="B3" r:id="rId3" xr:uid="{B4CAA284-E2BB-4C80-841D-B5AC7D58872C}"/>
-    <hyperlink ref="B4" r:id="rId4" xr:uid="{E4DC3527-643E-4396-962C-BA3263353AEE}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:C2"/>
+  </ignoredErrors>
 </worksheet>
 </file>